--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/final_costing_up_for_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/final_costing_up_for_leg.xlsx
@@ -709,7 +709,7 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>9265.191428571428</v>
+        <v>9265.191428571427</v>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -951,7 +951,7 @@
         <v>11.5</v>
       </c>
       <c r="F5" t="n">
-        <v>26.26519802674606</v>
+        <v>26.26519802674607</v>
       </c>
       <c r="G5" t="n">
         <v>2.204606884827879</v>
@@ -966,7 +966,7 @@
         <v>1.146408839779006</v>
       </c>
       <c r="K5" t="n">
-        <v>2.157946051348716</v>
+        <v>2.157946051348717</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>290.125</v>
       </c>
       <c r="P5" t="n">
-        <v>158298.231113517</v>
+        <v>158298.2311135171</v>
       </c>
       <c r="Q5" t="n">
         <v>6590.78463510719</v>
@@ -995,7 +995,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>34588.79242304657</v>
+        <v>34588.79242304658</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1003,10 +1003,10 @@
         <v>24556.18820958048</v>
       </c>
       <c r="Z5" t="n">
-        <v>5287.799474621133</v>
+        <v>5287.799474621134</v>
       </c>
       <c r="AA5" t="n">
-        <v>948.6386173678992</v>
+        <v>948.6386173678993</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>435238.1440365452</v>
+        <v>435238.1440365453</v>
       </c>
       <c r="AL5" t="n">
         <v>436543.8584686549</v>
@@ -1820,7 +1820,7 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>5320.155708989804</v>
+        <v>5320.155708989803</v>
       </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
@@ -3375,7 +3375,7 @@
         <v>11.5</v>
       </c>
       <c r="F29" t="n">
-        <v>17.34497766036298</v>
+        <v>17.34497766036299</v>
       </c>
       <c r="G29" t="n">
         <v>1.718866396761134</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.578947368421052</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="K29" t="n">
         <v>1.114551083591331</v>
@@ -3405,7 +3405,7 @@
         <v>290.125</v>
       </c>
       <c r="P29" t="n">
-        <v>56766.96967627015</v>
+        <v>56766.96967627016</v>
       </c>
       <c r="Q29" t="n">
         <v>4834.013067898371</v>
@@ -3427,7 +3427,7 @@
         <v>12682.95199537305</v>
       </c>
       <c r="Z29" t="n">
-        <v>1658.975610734384</v>
+        <v>1658.975610734385</v>
       </c>
       <c r="AA29" t="n">
         <v>489.9595141700404</v>
@@ -3456,7 +3456,7 @@
         <v>227972.851381899</v>
       </c>
       <c r="AM29" t="n">
-        <v>5.066063364042202</v>
+        <v>5.066063364042201</v>
       </c>
     </row>
     <row r="30">
